--- a/docs/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/docs/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -33,13 +33,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.5</t>
+    <t>0.9.6</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>PrescripcionRecetaCL2</t>
+    <t>PrescripcionRecetaCL</t>
   </si>
   <si>
     <t>Title</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:23:51-03:00</t>
+    <t>2024-01-03T11:13:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -336,10 +336,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:PComercial</t>
-  </si>
-  <si>
-    <t>PComercial</t>
+    <t>MedicationRequest.extension:ProdComercial</t>
+  </si>
+  <si>
+    <t>ProdComercial</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/ProdComercial}
@@ -1252,7 +1252,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
 </t>
   </si>
   <si>
@@ -1384,7 +1384,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
